--- a/pbp_regex.xlsx
+++ b/pbp_regex.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\AABack\BB\pbp_analyser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ED7921-8906-4FC5-B08F-FDFD43B85F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA6BB6D-D6AF-4498-8C31-A392914F85D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5494,6 +5489,7 @@
     <sortCondition ref="B2:B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23264,7 +23260,7 @@
         <v>1</v>
       </c>
       <c r="K386" s="4">
-        <f t="shared" ref="K386:K449" si="13">IF(L386="SHOOTER",1,IF(M386="SHOOTER",2,FALSE))</f>
+        <f t="shared" ref="K386:K406" si="13">IF(L386="SHOOTER",1,IF(M386="SHOOTER",2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L386" s="3" t="s">
@@ -27185,7 +27181,7 @@
         <v>960</v>
       </c>
       <c r="K472" s="4">
-        <f t="shared" ref="K472:K503" si="19">IF(L472="SHOOTER",1,IF(M472="SHOOTER",2,FALSE))</f>
+        <f t="shared" ref="K472:K495" si="19">IF(L472="SHOOTER",1,IF(M472="SHOOTER",2,FALSE))</f>
         <v>1</v>
       </c>
       <c r="L472" s="3" t="s">
@@ -35660,7 +35656,7 @@
         <v>388</v>
       </c>
       <c r="K657" s="4" t="b">
-        <f t="shared" ref="K657:K688" si="31">IF(L657="SHOOTER",1,IF(M657="SHOOTER",2,FALSE))</f>
+        <f t="shared" ref="K657:K662" si="31">IF(L657="SHOOTER",1,IF(M657="SHOOTER",2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L657" s="3" t="s">
